--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332519.197366477</v>
+        <v>1329859.3538414</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>39.13142226545821</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>139.9970707947473</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.857399613946</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>143.4259610297071</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.76943124013392</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.0928908896608</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>209.2704271186842</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>62.03461898207402</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>196.0797462605932</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.24364034742719</v>
+        <v>412.2436403474272</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.145823246979</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.54004601234834</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.749879200238915</v>
+        <v>139.3108928771023</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124902</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>19.6652192724028</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792039</v>
+        <v>96.42777606792038</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152308</v>
+        <v>33.04322907152304</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729025</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>137.652353483022</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.5940343340314</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>93.62988422968569</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.3806586560045</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860903</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="D13" t="n">
-        <v>109.0254778229513</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754662</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672548</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>191.9074132759364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419834185</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>170.4986271327076</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428045</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>100.5858322992703</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520972</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>132.6315337216688</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.7258286485376</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H28" t="n">
-        <v>5.421623586788684</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>46.15319674220996</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.26260713376602</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.3074752009601</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>214.0647808588587</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.98898794535512</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
-        <v>127.537940551674</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1735.922952231545</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="C2" t="n">
-        <v>1366.960435291133</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="D2" t="n">
-        <v>1008.694736684382</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="E2" t="n">
-        <v>622.9064840861381</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F2" t="n">
-        <v>211.9205792965305</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G2" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3115823537878</v>
+        <v>1116.114303067149</v>
       </c>
       <c r="M2" t="n">
-        <v>1341.029393337099</v>
+        <v>1747.832114050461</v>
       </c>
       <c r="N2" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O2" t="n">
         <v>2489.327531709521</v>
@@ -4358,22 +4358,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.830939477471</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W2" t="n">
-        <v>2126.062284207356</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X2" t="n">
-        <v>2126.062284207356</v>
+        <v>1185.096649255691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.922952231545</v>
+        <v>794.9573172798794</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L3" t="n">
-        <v>624.6702790690885</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M3" t="n">
-        <v>986.7313792423969</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N3" t="n">
-        <v>1638.905258545106</v>
+        <v>2036.048759695798</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4446,10 +4446,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.337940986287</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>870.9871361687179</v>
+        <v>197.5756276504281</v>
       </c>
       <c r="C4" t="n">
-        <v>702.0509532408111</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>551.9343138284753</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>404.0212202460822</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>257.1312727481718</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>88.52442774355518</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.635600998958</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.635600998958</v>
+        <v>425.5651785484454</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.635600998958</v>
+        <v>197.5756276504281</v>
       </c>
       <c r="Y4" t="n">
-        <v>1052.635600998958</v>
+        <v>197.5756276504281</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.857353906343</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="C5" t="n">
-        <v>606.8948369659313</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="D5" t="n">
-        <v>248.6291383591808</v>
+        <v>982.2154252505225</v>
       </c>
       <c r="E5" t="n">
-        <v>248.6291383591808</v>
+        <v>596.4271726522782</v>
       </c>
       <c r="F5" t="n">
-        <v>241.6836376099773</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4568,22 +4568,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>1032.36013938198</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.059552207387</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.062284207356</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.596525946276</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.457193970465</v>
+        <v>1368.815265314644</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.7781462144023</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="C7" t="n">
-        <v>555.7781462144023</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="D7" t="n">
-        <v>405.6615068020666</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="E7" t="n">
-        <v>257.7484132196735</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="F7" t="n">
-        <v>257.7484132196735</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G7" t="n">
-        <v>195.0871819246492</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>724.0972899601853</v>
       </c>
       <c r="T7" t="n">
-        <v>845.195316251363</v>
+        <v>724.0972899601853</v>
       </c>
       <c r="U7" t="n">
-        <v>845.195316251363</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="V7" t="n">
-        <v>845.195316251363</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="W7" t="n">
-        <v>555.7781462144023</v>
+        <v>434.9451135378651</v>
       </c>
       <c r="X7" t="n">
-        <v>555.7781462144023</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.7781462144023</v>
+        <v>206.9555626398478</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.2419493182283</v>
+        <v>1635.538108622174</v>
       </c>
       <c r="C8" t="n">
-        <v>430.2794323778165</v>
+        <v>1266.575591681762</v>
       </c>
       <c r="D8" t="n">
-        <v>72.01373377106601</v>
+        <v>1266.575591681762</v>
       </c>
       <c r="E8" t="n">
-        <v>72.01373377106601</v>
+        <v>880.7873390835178</v>
       </c>
       <c r="F8" t="n">
-        <v>65.06823302186254</v>
+        <v>873.8418383343144</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>457.4341208116607</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>146.1757134914799</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339144</v>
+        <v>130.5061518135616</v>
       </c>
       <c r="K8" t="n">
-        <v>606.8745119374363</v>
+        <v>297.8545443123822</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472773</v>
+        <v>950.0284236150912</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.123170346068</v>
+        <v>1253.764841313882</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208706</v>
+        <v>1567.029840176521</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.860163237719</v>
+        <v>2219.20371947923</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.023195151742</v>
+        <v>2425.786030303486</v>
       </c>
       <c r="Q8" t="n">
         <v>2593.177001405962</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2633.278422232926</v>
+        <v>2494.327903367408</v>
       </c>
       <c r="T8" t="n">
-        <v>2633.278422232926</v>
+        <v>2282.505022849741</v>
       </c>
       <c r="U8" t="n">
-        <v>2633.278422232926</v>
+        <v>2028.867724734165</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.215534889356</v>
+        <v>2028.867724734165</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.446879619242</v>
+        <v>2028.867724734165</v>
       </c>
       <c r="X8" t="n">
-        <v>1575.981121358162</v>
+        <v>1655.401966473086</v>
       </c>
       <c r="Y8" t="n">
-        <v>1185.84178938235</v>
+        <v>1635.538108622174</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240912</v>
+        <v>949.716695724091</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429642</v>
+        <v>775.263666442964</v>
       </c>
       <c r="D9" t="n">
-        <v>626.329256781713</v>
+        <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762574</v>
+        <v>467.0918017762573</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031423</v>
+        <v>320.5572438031422</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097578</v>
+        <v>183.4797126097577</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175737</v>
+        <v>86.07791860175735</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927866</v>
+        <v>205.0534608927867</v>
       </c>
       <c r="K9" t="n">
-        <v>592.0690635359285</v>
+        <v>330.2484788934761</v>
       </c>
       <c r="L9" t="n">
-        <v>1173.863698268267</v>
+        <v>912.043113625815</v>
       </c>
       <c r="M9" t="n">
-        <v>1600.481403124753</v>
+        <v>1283.752970712386</v>
       </c>
       <c r="N9" t="n">
-        <v>1891.890494893002</v>
+        <v>1575.162062480635</v>
       </c>
       <c r="O9" t="n">
-        <v>2136.253087275081</v>
+        <v>1819.524654862715</v>
       </c>
       <c r="P9" t="n">
-        <v>2313.042544805117</v>
+        <v>2311.592253346289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.278933760978</v>
+        <v>2587.82864230215</v>
       </c>
       <c r="R9" t="n">
         <v>2589.278933760978</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.633648333505</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C10" t="n">
-        <v>199.5908670375232</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D10" t="n">
-        <v>199.5908670375232</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4960,52 +4960,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205255</v>
+        <v>56.32012312205264</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969985</v>
+        <v>192.1044230969987</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696215</v>
+        <v>421.3880127696218</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424504</v>
+        <v>673.5245332424508</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331215</v>
+        <v>925.1004272331222</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557395</v>
+        <v>1141.455188557396</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081416</v>
+        <v>1303.063381081417</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.5174366179</v>
+        <v>1331.517436617901</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.5174366179</v>
+        <v>1214.755785775445</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.5174366179</v>
+        <v>1214.755785775445</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.5174366179</v>
+        <v>1214.755785775445</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.5174366179</v>
+        <v>925.6202486298394</v>
       </c>
       <c r="V10" t="n">
-        <v>1076.832948412013</v>
+        <v>831.0446079937932</v>
       </c>
       <c r="W10" t="n">
-        <v>787.4157783750525</v>
+        <v>831.0446079937932</v>
       </c>
       <c r="X10" t="n">
-        <v>559.4262274770351</v>
+        <v>603.0550570957759</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.633648333505</v>
+        <v>382.2624779522457</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1658.823186223308</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1289.860669282896</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282896</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846521</v>
+        <v>808.4162984738908</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950446</v>
+        <v>808.4162984738908</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469183</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469183</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
         <v>78.51106622469183</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
         <v>2485.180661765425</v>
@@ -5060,31 +5060,31 @@
         <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382979</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039409</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769294</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508215</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532403</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5103,16 +5103,16 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
         <v>78.51106622469183</v>
@@ -5121,25 +5121,25 @@
         <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
         <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.4639419262172</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>335.5277589983103</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="F13" t="n">
         <v>78.51106622469183</v>
@@ -5203,13 +5203,13 @@
         <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888918</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
         <v>1800.967734715849</v>
@@ -5218,31 +5218,31 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544743</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564569</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.1124067564569</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364392</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018653</v>
@@ -5294,34 +5294,34 @@
         <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>915.0917312077131</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061239</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>779.332461693788</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
         <v>819.1842911693325</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.3462391076</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.3462391076</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1922.661750901713</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905818</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.826328007801</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121682</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="20">
@@ -5744,49 +5744,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327647</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D22" t="n">
-        <v>444.701316492522</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>444.701316492522</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925221</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>277.505217207402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,16 +5914,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098234</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819165</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695806</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871876</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171304</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892235</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768878</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944947</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>266.4891497944947</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>99.29305050937458</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2415.384692536052</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2415.384692536052</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2415.384692536052</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.30946588025</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179097</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,7 +7342,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327644</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>763.7541388327644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>613.6374994204286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630041</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>335.3310259116175</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4078422411148</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>101.0927485134521</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>369.5300492536817</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5650977678448</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673753</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>411.7794329220886</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>373.4362477512085</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>61.03939959753635</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>158.3430293698339</v>
+        <v>102.8805568749701</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381728</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.3531830074761</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996329</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.1463689976766</v>
       </c>
       <c r="D13" t="n">
-        <v>39.5899951952611</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729138</v>
       </c>
       <c r="H14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597395</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>94.61558506065464</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788203</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.21102825632951</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.5498640939319</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.70888054695357</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.89260457060007</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H28" t="n">
-        <v>134.8730892594352</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.8730892594346</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.11263957635563</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.52450498097722</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864919</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>72.11969353038546</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.5956654067397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
-        <v>18.89602209489517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>980996.1016019695</v>
+        <v>980996.1016019693</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853713.9228254505</v>
+        <v>853713.9228254504</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>929181.1770338594</v>
+        <v>929181.1770338591</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958225</v>
+        <v>442233.6433958224</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828185</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140034</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991854</v>
+        <v>143427.3523991859</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.6534729323</v>
+        <v>458840.6534729317</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.347105138</v>
+        <v>166521.3471051379</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>80399.89743135528</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>43782.40655848909</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160507.712647638</v>
+        <v>160507.7126476379</v>
       </c>
       <c r="E4" t="n">
         <v>6798.303539401317</v>
       </c>
       <c r="F4" t="n">
-        <v>6890.891875482009</v>
+        <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
@@ -26436,28 +26436,28 @@
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707366</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707368</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707366</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707369</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629359</v>
+        <v>90269.0180162936</v>
       </c>
       <c r="E5" t="n">
         <v>86093.72216214711</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-576532.242051509</v>
+        <v>-576532.2420515092</v>
       </c>
       <c r="C6" t="n">
-        <v>216115.1716594758</v>
+        <v>216115.1716594759</v>
       </c>
       <c r="D6" t="n">
-        <v>98420.97885545285</v>
+        <v>98420.97885545249</v>
       </c>
       <c r="E6" t="n">
-        <v>-109499.0357786583</v>
+        <v>-109709.0000225025</v>
       </c>
       <c r="F6" t="n">
-        <v>208053.4954883601</v>
+        <v>208007.5904927945</v>
       </c>
       <c r="G6" t="n">
-        <v>365100.7692578105</v>
+        <v>365066.0313323744</v>
       </c>
       <c r="H6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="I6" t="n">
-        <v>376268.005493389</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="J6" t="n">
-        <v>203907.0130931083</v>
+        <v>203872.2751676727</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933889</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="M6" t="n">
-        <v>295868.1080620338</v>
+        <v>295833.3701365981</v>
       </c>
       <c r="N6" t="n">
-        <v>332485.5989348998</v>
+        <v>332450.8610094645</v>
       </c>
       <c r="O6" t="n">
-        <v>373244.7075161645</v>
+        <v>373209.9695907285</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679533</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673314</v>
+        <v>760.9504204673319</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26799,7 +26799,7 @@
         <v>981.3883278086479</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292663</v>
+        <v>167.4743201292669</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272248</v>
+        <v>451.219847027224</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27021,10 +27021,10 @@
         <v>322.6268335634873</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27045,10 +27045,10 @@
         <v>322.6268335634873</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27267,10 +27267,10 @@
         <v>322.6268335634873</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>373.7854816804786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>229.7340298837217</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.82086006892078</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9426654290986</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>225.824013056276</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>176.9675115373693</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>104.8861575724964</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>9.286135639525412</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>308.145823246979</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234843</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>137.5610136768634</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>366.5727193836508</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>29.59446761560585</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.6187736822062</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340315</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.1027954790071</v>
@@ -28065,13 +28065,13 @@
         <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>158.5077590941423</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-2.450898743215172e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707862</v>
+        <v>3.059097167707865</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878816</v>
+        <v>31.32897886878818</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580575</v>
+        <v>117.9358435580576</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377454</v>
+        <v>259.6370482377456</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468193</v>
+        <v>389.1286313468196</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930589</v>
+        <v>482.7484762930593</v>
       </c>
       <c r="M8" t="n">
-        <v>537.1506955492836</v>
+        <v>537.150695549284</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770336</v>
+        <v>545.842355377034</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156386</v>
+        <v>515.4234579156389</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878506</v>
+        <v>439.9019965878509</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693127</v>
+        <v>330.3480792693129</v>
       </c>
       <c r="R8" t="n">
-        <v>192.1610124610292</v>
+        <v>192.1610124610293</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914298</v>
+        <v>69.70917670914304</v>
       </c>
       <c r="T8" t="n">
         <v>13.39119785164118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166289</v>
+        <v>0.2447277734166291</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63676128175992</v>
+        <v>1.636761281759922</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857608</v>
+        <v>15.80766816857609</v>
       </c>
       <c r="I9" t="n">
-        <v>56.353403779892</v>
+        <v>56.35340377989204</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385546</v>
+        <v>154.6380472385547</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164692</v>
+        <v>264.3010531164695</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908985</v>
+        <v>355.3853826908988</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546955</v>
+        <v>414.7179791546959</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310593</v>
+        <v>425.6943300310596</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404842</v>
+        <v>389.4271458404845</v>
       </c>
       <c r="P9" t="n">
-        <v>312.549617040629</v>
+        <v>312.5496170406292</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611435</v>
+        <v>208.9311418611437</v>
       </c>
       <c r="R9" t="n">
         <v>101.6227750201467</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093534</v>
+        <v>30.40212293093536</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900729</v>
+        <v>6.597296569900734</v>
       </c>
       <c r="U9" t="n">
-        <v>0.107681663273679</v>
+        <v>0.1076816632736791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252565</v>
+        <v>1.372205676252566</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159099</v>
+        <v>12.200155921591</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403168</v>
+        <v>41.26596706403171</v>
       </c>
       <c r="J10" t="n">
-        <v>97.0149413110563</v>
+        <v>97.01494131105639</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864343</v>
+        <v>159.4253503864344</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675859</v>
+        <v>204.009560267586</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511179</v>
+        <v>215.099477051118</v>
       </c>
       <c r="N10" t="n">
-        <v>209.984892257813</v>
+        <v>209.9848922578132</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397716</v>
+        <v>193.9550350397718</v>
       </c>
       <c r="P10" t="n">
-        <v>165.9620392442192</v>
+        <v>165.9620392442193</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.903513490567</v>
+        <v>114.9035134905671</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313802</v>
+        <v>61.69935704313807</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796514</v>
+        <v>23.91380255796516</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715502</v>
+        <v>5.863060616715506</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104906</v>
+        <v>0.07484758234104912</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
         <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
         <v>0.3898437041188518</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
         <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626221</v>
+        <v>237.3367583732568</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697586</v>
@@ -31911,19 +31911,19 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
         <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
         <v>342.6467528263709</v>
@@ -31932,22 +31932,22 @@
         <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,10 +32069,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>506.4291208739053</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>476.0670419128834</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
         <v>68.29072693268387</v>
@@ -34784,19 +34784,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>365.7182830033419</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>262.2162966637154</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>558.1153147338914</v>
       </c>
       <c r="N5" t="n">
         <v>196.2971847393761</v>
@@ -34954,7 +34954,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>273.6886459181081</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6877588831329</v>
+        <v>78.59114371105932</v>
       </c>
       <c r="K8" t="n">
-        <v>312.083546569214</v>
+        <v>169.038780301839</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230717</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220109</v>
+        <v>306.8044623220113</v>
       </c>
       <c r="N8" t="n">
-        <v>316.4292917804427</v>
+        <v>316.4292917804431</v>
       </c>
       <c r="O8" t="n">
-        <v>285.3252464939518</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040636</v>
+        <v>208.6690008325814</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.3573800547679</v>
+        <v>169.0817889923998</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451987949</v>
+        <v>42.29189451987963</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122967</v>
+        <v>153.8914559122969</v>
       </c>
       <c r="K9" t="n">
-        <v>390.9248511546888</v>
+        <v>126.4596141421105</v>
       </c>
       <c r="L9" t="n">
-        <v>587.6713482144835</v>
+        <v>587.6713482144837</v>
       </c>
       <c r="M9" t="n">
-        <v>430.9269746025111</v>
+        <v>375.4645021076476</v>
       </c>
       <c r="N9" t="n">
-        <v>294.352617947726</v>
+        <v>294.3526179477263</v>
       </c>
       <c r="O9" t="n">
-        <v>246.8309013960397</v>
+        <v>246.83090139604</v>
       </c>
       <c r="P9" t="n">
-        <v>178.5752096262988</v>
+        <v>497.0379782662362</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.0266555109711</v>
+        <v>279.0266555109713</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.464940867503614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65576119438353</v>
+        <v>3.655761194383615</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605514</v>
+        <v>137.1558585605516</v>
       </c>
       <c r="L10" t="n">
-        <v>231.599585527902</v>
+        <v>231.5995855279021</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129585</v>
+        <v>254.6833540129586</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370416</v>
+        <v>254.1170646370418</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538113</v>
+        <v>218.5401629538115</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091127</v>
+        <v>163.2405985091128</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887265</v>
+        <v>28.74147023887274</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
         <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
         <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>122.1974508792888</v>
+        <v>105.9950462899235</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
         <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
         <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190456</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>363.8328764294609</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
